--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Wnt5a-Fzd1.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Wnt5a-Fzd1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Wnt5a</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>Neutro</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>7.46263479626026</v>
+        <v>7.514794999999999</v>
       </c>
       <c r="H2">
-        <v>7.46263479626026</v>
+        <v>22.544385</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.992147452492356</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.992147452492356</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.472421379254888</v>
+        <v>0.5018866666666667</v>
       </c>
       <c r="N2">
-        <v>0.472421379254888</v>
+        <v>1.50566</v>
       </c>
       <c r="O2">
-        <v>0.02230601663427809</v>
+        <v>0.02325346250969519</v>
       </c>
       <c r="P2">
-        <v>0.02230601663427809</v>
+        <v>0.02325346250969519</v>
       </c>
       <c r="Q2">
-        <v>3.525508223324792</v>
+        <v>3.771575413233333</v>
       </c>
       <c r="R2">
-        <v>3.525508223324792</v>
+        <v>33.9441787191</v>
       </c>
       <c r="S2">
-        <v>0.02230601663427809</v>
+        <v>0.02307086359062059</v>
       </c>
       <c r="T2">
-        <v>0.02230601663427809</v>
+        <v>0.02307086359062059</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>7.46263479626026</v>
+        <v>7.514794999999999</v>
       </c>
       <c r="H3">
-        <v>7.46263479626026</v>
+        <v>22.544385</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.992147452492356</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.992147452492356</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>16.9575307055031</v>
+        <v>17.00656966666667</v>
       </c>
       <c r="N3">
-        <v>16.9575307055031</v>
+        <v>51.019709</v>
       </c>
       <c r="O3">
-        <v>0.8006728285451953</v>
+        <v>0.7879500620904175</v>
       </c>
       <c r="P3">
-        <v>0.8006728285451953</v>
+        <v>0.7879500620904175</v>
       </c>
       <c r="Q3">
-        <v>126.5478587015392</v>
+        <v>127.8008846982183</v>
       </c>
       <c r="R3">
-        <v>126.5478587015392</v>
+        <v>1150.207962283965</v>
       </c>
       <c r="S3">
-        <v>0.8006728285451953</v>
+        <v>0.7817626467942015</v>
       </c>
       <c r="T3">
-        <v>0.8006728285451953</v>
+        <v>0.7817626467942015</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>7.46263479626026</v>
+        <v>7.514794999999999</v>
       </c>
       <c r="H4">
-        <v>7.46263479626026</v>
+        <v>22.544385</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.992147452492356</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.992147452492356</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.301030049468223</v>
+        <v>0.4244703333333333</v>
       </c>
       <c r="N4">
-        <v>0.301030049468223</v>
+        <v>1.273411</v>
       </c>
       <c r="O4">
-        <v>0.01421354237068276</v>
+        <v>0.01966660132296365</v>
       </c>
       <c r="P4">
-        <v>0.01421354237068276</v>
+        <v>0.01966660132296365</v>
       </c>
       <c r="Q4">
-        <v>2.246477321881508</v>
+        <v>3.189807538581666</v>
       </c>
       <c r="R4">
-        <v>2.246477321881508</v>
+        <v>28.708267847235</v>
       </c>
       <c r="S4">
-        <v>0.01421354237068276</v>
+        <v>0.01951216840176119</v>
       </c>
       <c r="T4">
-        <v>0.01421354237068276</v>
+        <v>0.01951216840176119</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>7.46263479626026</v>
+        <v>7.514794999999999</v>
       </c>
       <c r="H5">
-        <v>7.46263479626026</v>
+        <v>22.544385</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.992147452492356</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.992147452492356</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.345922443615572</v>
+        <v>0.3996003333333333</v>
       </c>
       <c r="N5">
-        <v>0.345922443615572</v>
+        <v>1.198801</v>
       </c>
       <c r="O5">
-        <v>0.01633319769234224</v>
+        <v>0.01851432203159086</v>
       </c>
       <c r="P5">
-        <v>0.01633319769234224</v>
+        <v>0.01851432203159086</v>
       </c>
       <c r="Q5">
-        <v>2.581492864532946</v>
+        <v>3.002914586931666</v>
       </c>
       <c r="R5">
-        <v>2.581492864532946</v>
+        <v>27.026231282385</v>
       </c>
       <c r="S5">
-        <v>0.01633319769234224</v>
+        <v>0.01836893743826597</v>
       </c>
       <c r="T5">
-        <v>0.01633319769234224</v>
+        <v>0.01836893743826597</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>7.46263479626026</v>
+        <v>7.514794999999999</v>
       </c>
       <c r="H6">
-        <v>7.46263479626026</v>
+        <v>22.544385</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0.992147452492356</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>0.992147452492356</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.185588725562554</v>
+        <v>0.2431653333333333</v>
       </c>
       <c r="N6">
-        <v>0.185588725562554</v>
+        <v>0.7294959999999999</v>
       </c>
       <c r="O6">
-        <v>0.008762823575135584</v>
+        <v>0.01126636019218987</v>
       </c>
       <c r="P6">
-        <v>0.008762823575135584</v>
+        <v>0.01126636019218987</v>
       </c>
       <c r="Q6">
-        <v>1.384980881176711</v>
+        <v>1.827337631106666</v>
       </c>
       <c r="R6">
-        <v>1.384980881176711</v>
+        <v>16.44603867996</v>
       </c>
       <c r="S6">
-        <v>0.008762823575135584</v>
+        <v>0.01117789056354247</v>
       </c>
       <c r="T6">
-        <v>0.008762823575135584</v>
+        <v>0.01117789056354247</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,433 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
         <v>21</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>7.514794999999999</v>
+      </c>
+      <c r="H7">
+        <v>22.544385</v>
+      </c>
+      <c r="I7">
+        <v>0.992147452492356</v>
+      </c>
+      <c r="J7">
+        <v>0.992147452492356</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>3.007616666666667</v>
+      </c>
+      <c r="N7">
+        <v>9.02285</v>
+      </c>
+      <c r="O7">
+        <v>0.139349191853143</v>
+      </c>
+      <c r="P7">
+        <v>0.1393491918531429</v>
+      </c>
+      <c r="Q7">
+        <v>22.60162268858333</v>
+      </c>
+      <c r="R7">
+        <v>203.41460419725</v>
+      </c>
+      <c r="S7">
+        <v>0.1382549457039643</v>
+      </c>
+      <c r="T7">
+        <v>0.1382549457039643</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
         <v>22</v>
       </c>
-      <c r="D7" t="s">
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.05947733333333333</v>
+      </c>
+      <c r="H8">
+        <v>0.178432</v>
+      </c>
+      <c r="I8">
+        <v>0.007852547507643968</v>
+      </c>
+      <c r="J8">
+        <v>0.00785254750764397</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>0.5018866666666667</v>
+      </c>
+      <c r="N8">
+        <v>1.50566</v>
+      </c>
+      <c r="O8">
+        <v>0.02325346250969519</v>
+      </c>
+      <c r="P8">
+        <v>0.02325346250969519</v>
+      </c>
+      <c r="Q8">
+        <v>0.02985088056888889</v>
+      </c>
+      <c r="R8">
+        <v>0.26865792512</v>
+      </c>
+      <c r="S8">
+        <v>0.0001825989190745994</v>
+      </c>
+      <c r="T8">
+        <v>0.0001825989190745994</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.05947733333333333</v>
+      </c>
+      <c r="H9">
+        <v>0.178432</v>
+      </c>
+      <c r="I9">
+        <v>0.007852547507643968</v>
+      </c>
+      <c r="J9">
+        <v>0.00785254750764397</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>17.00656966666667</v>
+      </c>
+      <c r="N9">
+        <v>51.019709</v>
+      </c>
+      <c r="O9">
+        <v>0.7879500620904175</v>
+      </c>
+      <c r="P9">
+        <v>0.7879500620904175</v>
+      </c>
+      <c r="Q9">
+        <v>1.011505412920889</v>
+      </c>
+      <c r="R9">
+        <v>9.103548716288</v>
+      </c>
+      <c r="S9">
+        <v>0.006187415296216018</v>
+      </c>
+      <c r="T9">
+        <v>0.00618741529621602</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.05947733333333333</v>
+      </c>
+      <c r="H10">
+        <v>0.178432</v>
+      </c>
+      <c r="I10">
+        <v>0.007852547507643968</v>
+      </c>
+      <c r="J10">
+        <v>0.00785254750764397</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.4244703333333333</v>
+      </c>
+      <c r="N10">
+        <v>1.273411</v>
+      </c>
+      <c r="O10">
+        <v>0.01966660132296365</v>
+      </c>
+      <c r="P10">
+        <v>0.01966660132296365</v>
+      </c>
+      <c r="Q10">
+        <v>0.02524636350577777</v>
+      </c>
+      <c r="R10">
+        <v>0.227217271552</v>
+      </c>
+      <c r="S10">
+        <v>0.0001544329212024658</v>
+      </c>
+      <c r="T10">
+        <v>0.0001544329212024658</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.05947733333333333</v>
+      </c>
+      <c r="H11">
+        <v>0.178432</v>
+      </c>
+      <c r="I11">
+        <v>0.007852547507643968</v>
+      </c>
+      <c r="J11">
+        <v>0.00785254750764397</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.3996003333333333</v>
+      </c>
+      <c r="N11">
+        <v>1.198801</v>
+      </c>
+      <c r="O11">
+        <v>0.01851432203159086</v>
+      </c>
+      <c r="P11">
+        <v>0.01851432203159086</v>
+      </c>
+      <c r="Q11">
+        <v>0.02376716222577778</v>
+      </c>
+      <c r="R11">
+        <v>0.213904460032</v>
+      </c>
+      <c r="S11">
+        <v>0.0001453845933248866</v>
+      </c>
+      <c r="T11">
+        <v>0.0001453845933248867</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" t="s">
         <v>27</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>7.46263479626026</v>
-      </c>
-      <c r="H7">
-        <v>7.46263479626026</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7">
-        <v>1</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>2.91660769882969</v>
-      </c>
-      <c r="N7">
-        <v>2.91660769882969</v>
-      </c>
-      <c r="O7">
-        <v>0.137711591182366</v>
-      </c>
-      <c r="P7">
-        <v>0.137711591182366</v>
-      </c>
-      <c r="Q7">
-        <v>21.76557810032701</v>
-      </c>
-      <c r="R7">
-        <v>21.76557810032701</v>
-      </c>
-      <c r="S7">
-        <v>0.137711591182366</v>
-      </c>
-      <c r="T7">
-        <v>0.137711591182366</v>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.05947733333333333</v>
+      </c>
+      <c r="H12">
+        <v>0.178432</v>
+      </c>
+      <c r="I12">
+        <v>0.007852547507643968</v>
+      </c>
+      <c r="J12">
+        <v>0.00785254750764397</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0.2431653333333333</v>
+      </c>
+      <c r="N12">
+        <v>0.7294959999999999</v>
+      </c>
+      <c r="O12">
+        <v>0.01126636019218987</v>
+      </c>
+      <c r="P12">
+        <v>0.01126636019218987</v>
+      </c>
+      <c r="Q12">
+        <v>0.01446282558577778</v>
+      </c>
+      <c r="R12">
+        <v>0.130165430272</v>
+      </c>
+      <c r="S12">
+        <v>8.846962864739977E-05</v>
+      </c>
+      <c r="T12">
+        <v>8.846962864739978E-05</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.05947733333333333</v>
+      </c>
+      <c r="H13">
+        <v>0.178432</v>
+      </c>
+      <c r="I13">
+        <v>0.007852547507643968</v>
+      </c>
+      <c r="J13">
+        <v>0.00785254750764397</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>3.007616666666667</v>
+      </c>
+      <c r="N13">
+        <v>9.02285</v>
+      </c>
+      <c r="O13">
+        <v>0.139349191853143</v>
+      </c>
+      <c r="P13">
+        <v>0.1393491918531429</v>
+      </c>
+      <c r="Q13">
+        <v>0.1788850190222222</v>
+      </c>
+      <c r="R13">
+        <v>1.6099651712</v>
+      </c>
+      <c r="S13">
+        <v>0.001094246149178599</v>
+      </c>
+      <c r="T13">
+        <v>0.001094246149178599</v>
       </c>
     </row>
   </sheetData>
